--- a/xlsxwriter/demo.xlsx
+++ b/xlsxwriter/demo.xlsx
@@ -400,7 +400,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>44216.99609181025</v>
+        <v>44220.69390954999</v>
       </c>
     </row>
   </sheetData>
